--- a/A_Input/twitter_handles.xlsx
+++ b/A_Input/twitter_handles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s8/Documents/Coding/word_choice_communities/A_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114CB396-82DA-8242-8841-F0C470EEF397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79B7D82-4658-694C-A83E-E3C2BD0F67BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1820" windowWidth="17300" windowHeight="21100" xr2:uid="{BCB6CF97-4FB3-B941-833D-11AB9E201DC0}"/>
   </bookViews>
@@ -3357,9 +3357,6 @@
     <t>https://twitter.com/Repsarajacobs</t>
   </si>
   <si>
-    <t>https://twitter.com/RepJayapal/</t>
-  </si>
-  <si>
     <t>https://twitter.com/RepJeffries</t>
   </si>
   <si>
@@ -4113,9 +4110,6 @@
     <t>https://twitter.com/TerryDowdall</t>
   </si>
   <si>
-    <t>https://twitter.com/EricDuncanSDSG/</t>
-  </si>
-  <si>
     <t>https://twitter.com/AliEhsassi</t>
   </si>
   <si>
@@ -4209,9 +4203,6 @@
     <t>https://twitter.com/terrysheehanmp</t>
   </si>
   <si>
-    <t>https://twitter.com/MSidhuLiberal/</t>
-  </si>
-  <si>
     <t>https://twitter.com/fsorbara</t>
   </si>
   <si>
@@ -4221,9 +4212,6 @@
     <t>https://twitter.com/ctochor</t>
   </si>
   <si>
-    <t>https://twitter.com/rechievaldez/</t>
-  </si>
-  <si>
     <t>https://twitter.com/takovanpopta</t>
   </si>
   <si>
@@ -4413,15 +4401,9 @@
     <t>https://twitter.com/lisamurkowski</t>
   </si>
   <si>
-    <t>https://twitter.com/PattyMurray/</t>
-  </si>
-  <si>
     <t>https://twitter.com/senossoff</t>
   </si>
   <si>
-    <t>https://twitter.com/SenAlexPadilla/</t>
-  </si>
-  <si>
     <t>https://twitter.com/senRandPaul</t>
   </si>
   <si>
@@ -4437,9 +4419,6 @@
     <t>https://twitter.com/SenatorRisch</t>
   </si>
   <si>
-    <t>https://twitter.com/senatorromney/</t>
-  </si>
-  <si>
     <t>https://twitter.com/SenJackyRosen</t>
   </si>
   <si>
@@ -4479,9 +4458,6 @@
     <t>https://twitter.com/sentinasmith</t>
   </si>
   <si>
-    <t>https://twitter.com/SenStabenow/</t>
-  </si>
-  <si>
     <t>https://twitter.com/SenDanSullivan</t>
   </si>
   <si>
@@ -4593,9 +4569,6 @@
     <t>https://twitter.com/johnbarlowmp</t>
   </si>
   <si>
-    <t>https://twitter.com/Carolyn_Bennett/</t>
-  </si>
-  <si>
     <t>https://twitter.com/bobbenzen</t>
   </si>
   <si>
@@ -5197,6 +5170,33 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>https://twitter.com/RepJayapal</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SenAlexPadilla</t>
+  </si>
+  <si>
+    <t>https://twitter.com/PattyMurray</t>
+  </si>
+  <si>
+    <t>https://twitter.com/senatorromney</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SenStabenow</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Carolyn_Bennett</t>
+  </si>
+  <si>
+    <t>https://twitter.com/EricDuncanSDSG</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MSidhuLiberal</t>
+  </si>
+  <si>
+    <t>https://twitter.com/rechievaldez</t>
   </si>
 </sst>
 </file>
@@ -5654,7 +5654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5684,7 +5684,7 @@
         <v>874</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -6267,7 +6267,7 @@
         <v>552</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -6607,7 +6607,7 @@
         <v>880</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -6746,7 +6746,7 @@
         <v>469</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -6933,7 +6933,7 @@
         <v>471</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -6984,7 +6984,7 @@
         <v>573</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -7630,7 +7630,7 @@
         <v>457</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -7766,7 +7766,7 @@
         <v>885</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -8038,7 +8038,7 @@
         <v>507</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -8463,7 +8463,7 @@
         <v>488</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -8735,7 +8735,7 @@
         <v>457</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1688</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -9143,7 +9143,7 @@
         <v>473</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1107</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -9160,7 +9160,7 @@
         <v>509</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -9177,7 +9177,7 @@
         <v>469</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -9194,7 +9194,7 @@
         <v>571</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -9211,7 +9211,7 @@
         <v>488</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -9228,7 +9228,7 @@
         <v>559</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -9245,7 +9245,7 @@
         <v>483</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -9262,7 +9262,7 @@
         <v>509</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -9279,7 +9279,7 @@
         <v>469</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -9296,7 +9296,7 @@
         <v>469</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -9313,7 +9313,7 @@
         <v>481</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -9330,7 +9330,7 @@
         <v>893</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -9347,7 +9347,7 @@
         <v>469</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -9364,7 +9364,7 @@
         <v>509</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -9381,7 +9381,7 @@
         <v>545</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -9398,7 +9398,7 @@
         <v>481</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -9415,7 +9415,7 @@
         <v>481</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -9432,7 +9432,7 @@
         <v>894</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -9449,7 +9449,7 @@
         <v>524</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -9466,7 +9466,7 @@
         <v>505</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -9483,7 +9483,7 @@
         <v>563</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -9500,7 +9500,7 @@
         <v>473</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -9517,7 +9517,7 @@
         <v>463</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -9534,7 +9534,7 @@
         <v>505</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -9551,7 +9551,7 @@
         <v>451</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -9568,7 +9568,7 @@
         <v>500</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -9585,7 +9585,7 @@
         <v>895</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -9602,7 +9602,7 @@
         <v>500</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -9619,7 +9619,7 @@
         <v>896</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -9636,7 +9636,7 @@
         <v>457</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -9653,7 +9653,7 @@
         <v>500</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -9670,7 +9670,7 @@
         <v>505</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -9687,7 +9687,7 @@
         <v>481</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -9704,7 +9704,7 @@
         <v>455</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -9721,7 +9721,7 @@
         <v>897</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -9738,7 +9738,7 @@
         <v>898</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -9755,7 +9755,7 @@
         <v>459</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -9772,7 +9772,7 @@
         <v>469</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -9789,7 +9789,7 @@
         <v>899</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -9806,7 +9806,7 @@
         <v>563</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -9823,7 +9823,7 @@
         <v>573</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -9840,7 +9840,7 @@
         <v>505</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -9857,7 +9857,7 @@
         <v>490</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -9874,7 +9874,7 @@
         <v>518</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -9891,7 +9891,7 @@
         <v>531</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -9908,7 +9908,7 @@
         <v>483</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -9925,7 +9925,7 @@
         <v>563</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -9942,7 +9942,7 @@
         <v>505</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -9959,7 +9959,7 @@
         <v>505</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -9976,7 +9976,7 @@
         <v>505</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -9993,7 +9993,7 @@
         <v>461</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -10010,7 +10010,7 @@
         <v>559</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -10027,7 +10027,7 @@
         <v>505</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -10044,7 +10044,7 @@
         <v>526</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -10061,7 +10061,7 @@
         <v>461</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -10078,7 +10078,7 @@
         <v>900</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -10095,7 +10095,7 @@
         <v>545</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -10112,7 +10112,7 @@
         <v>511</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -10129,7 +10129,7 @@
         <v>463</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -10146,7 +10146,7 @@
         <v>509</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -10163,7 +10163,7 @@
         <v>509</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -10180,7 +10180,7 @@
         <v>509</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -10197,7 +10197,7 @@
         <v>547</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -10214,7 +10214,7 @@
         <v>471</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -10231,7 +10231,7 @@
         <v>549</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -10248,7 +10248,7 @@
         <v>573</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -10265,7 +10265,7 @@
         <v>505</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -10282,7 +10282,7 @@
         <v>559</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -10299,7 +10299,7 @@
         <v>505</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -10316,7 +10316,7 @@
         <v>488</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -10333,7 +10333,7 @@
         <v>563</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -10350,7 +10350,7 @@
         <v>505</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -10367,7 +10367,7 @@
         <v>535</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -10384,7 +10384,7 @@
         <v>529</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -10401,7 +10401,7 @@
         <v>901</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -10418,7 +10418,7 @@
         <v>471</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -10435,7 +10435,7 @@
         <v>475</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -10452,7 +10452,7 @@
         <v>505</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -10469,7 +10469,7 @@
         <v>509</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -10486,7 +10486,7 @@
         <v>563</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -10503,7 +10503,7 @@
         <v>509</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -10520,7 +10520,7 @@
         <v>481</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -10537,7 +10537,7 @@
         <v>477</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -10554,7 +10554,7 @@
         <v>475</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -10571,7 +10571,7 @@
         <v>500</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -10588,7 +10588,7 @@
         <v>902</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -10605,7 +10605,7 @@
         <v>563</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -10622,7 +10622,7 @@
         <v>903</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -10639,7 +10639,7 @@
         <v>904</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -10656,7 +10656,7 @@
         <v>540</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -10673,7 +10673,7 @@
         <v>451</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -10690,7 +10690,7 @@
         <v>509</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -10707,7 +10707,7 @@
         <v>545</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -10724,7 +10724,7 @@
         <v>467</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -10741,7 +10741,7 @@
         <v>905</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -10758,7 +10758,7 @@
         <v>471</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -10775,7 +10775,7 @@
         <v>573</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -10792,7 +10792,7 @@
         <v>509</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -10809,7 +10809,7 @@
         <v>505</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -10826,7 +10826,7 @@
         <v>545</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -10843,7 +10843,7 @@
         <v>906</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -10860,7 +10860,7 @@
         <v>488</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -10877,7 +10877,7 @@
         <v>473</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -10894,7 +10894,7 @@
         <v>500</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -10911,7 +10911,7 @@
         <v>463</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -10928,7 +10928,7 @@
         <v>511</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -10945,7 +10945,7 @@
         <v>922</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -10962,7 +10962,7 @@
         <v>531</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -10979,7 +10979,7 @@
         <v>505</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -10996,7 +10996,7 @@
         <v>509</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -11013,7 +11013,7 @@
         <v>535</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -11030,7 +11030,7 @@
         <v>540</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -11047,7 +11047,7 @@
         <v>524</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -11064,7 +11064,7 @@
         <v>463</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -11081,7 +11081,7 @@
         <v>582</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -11098,7 +11098,7 @@
         <v>505</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -11115,7 +11115,7 @@
         <v>515</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -11132,7 +11132,7 @@
         <v>463</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -11149,7 +11149,7 @@
         <v>463</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -11166,7 +11166,7 @@
         <v>505</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -11183,7 +11183,7 @@
         <v>467</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -11200,7 +11200,7 @@
         <v>455</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -11217,7 +11217,7 @@
         <v>481</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -11234,7 +11234,7 @@
         <v>505</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -11251,7 +11251,7 @@
         <v>488</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -11268,7 +11268,7 @@
         <v>535</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -11285,7 +11285,7 @@
         <v>485</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -11302,7 +11302,7 @@
         <v>921</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -11319,7 +11319,7 @@
         <v>907</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -11336,7 +11336,7 @@
         <v>505</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -11353,7 +11353,7 @@
         <v>573</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -11370,7 +11370,7 @@
         <v>545</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -11387,7 +11387,7 @@
         <v>471</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -11404,7 +11404,7 @@
         <v>500</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -11421,7 +11421,7 @@
         <v>920</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -11438,7 +11438,7 @@
         <v>477</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -11455,7 +11455,7 @@
         <v>481</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -11472,7 +11472,7 @@
         <v>509</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -11489,7 +11489,7 @@
         <v>511</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -11506,7 +11506,7 @@
         <v>473</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -11523,7 +11523,7 @@
         <v>549</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -11540,7 +11540,7 @@
         <v>582</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -11557,7 +11557,7 @@
         <v>457</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -11574,7 +11574,7 @@
         <v>498</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -11591,7 +11591,7 @@
         <v>908</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -11608,7 +11608,7 @@
         <v>471</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -11625,7 +11625,7 @@
         <v>488</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -11642,7 +11642,7 @@
         <v>505</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -11659,7 +11659,7 @@
         <v>505</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -11676,7 +11676,7 @@
         <v>909</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -11693,7 +11693,7 @@
         <v>500</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -11710,7 +11710,7 @@
         <v>573</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -11727,7 +11727,7 @@
         <v>469</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -11744,7 +11744,7 @@
         <v>919</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -11761,7 +11761,7 @@
         <v>573</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -11778,7 +11778,7 @@
         <v>449</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -11795,7 +11795,7 @@
         <v>477</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -11812,7 +11812,7 @@
         <v>483</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -11829,7 +11829,7 @@
         <v>481</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -11846,7 +11846,7 @@
         <v>500</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -11863,7 +11863,7 @@
         <v>505</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -11880,7 +11880,7 @@
         <v>500</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -11897,7 +11897,7 @@
         <v>552</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -11914,7 +11914,7 @@
         <v>473</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -11931,7 +11931,7 @@
         <v>531</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
@@ -11948,7 +11948,7 @@
         <v>559</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -11965,7 +11965,7 @@
         <v>559</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -11982,7 +11982,7 @@
         <v>529</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -11999,7 +11999,7 @@
         <v>488</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -12016,7 +12016,7 @@
         <v>582</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -12033,7 +12033,7 @@
         <v>505</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -12050,7 +12050,7 @@
         <v>463</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -12067,7 +12067,7 @@
         <v>910</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -12084,7 +12084,7 @@
         <v>463</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -12101,7 +12101,7 @@
         <v>563</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -12118,7 +12118,7 @@
         <v>473</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -12135,7 +12135,7 @@
         <v>507</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -12152,7 +12152,7 @@
         <v>463</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -12169,7 +12169,7 @@
         <v>461</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
@@ -12186,7 +12186,7 @@
         <v>481</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
@@ -12203,7 +12203,7 @@
         <v>573</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
@@ -12220,7 +12220,7 @@
         <v>529</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
@@ -12237,7 +12237,7 @@
         <v>467</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
@@ -12254,7 +12254,7 @@
         <v>505</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
@@ -12271,7 +12271,7 @@
         <v>518</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
@@ -12288,7 +12288,7 @@
         <v>531</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -12305,7 +12305,7 @@
         <v>535</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
@@ -12322,7 +12322,7 @@
         <v>505</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
@@ -12339,7 +12339,7 @@
         <v>509</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -12356,7 +12356,7 @@
         <v>451</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -12373,7 +12373,7 @@
         <v>573</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
@@ -12390,7 +12390,7 @@
         <v>563</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -12407,7 +12407,7 @@
         <v>911</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -12424,7 +12424,7 @@
         <v>473</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -12441,7 +12441,7 @@
         <v>509</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -12458,7 +12458,7 @@
         <v>505</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -12475,7 +12475,7 @@
         <v>505</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -12492,7 +12492,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -12509,7 +12509,7 @@
         <v>488</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -12526,7 +12526,7 @@
         <v>509</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -12543,7 +12543,7 @@
         <v>912</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -12560,7 +12560,7 @@
         <v>481</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -12577,7 +12577,7 @@
         <v>505</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
@@ -12594,7 +12594,7 @@
         <v>451</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
@@ -12611,7 +12611,7 @@
         <v>511</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
@@ -12628,7 +12628,7 @@
         <v>490</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -12645,7 +12645,7 @@
         <v>563</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -12662,7 +12662,7 @@
         <v>509</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -12679,7 +12679,7 @@
         <v>505</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -12696,7 +12696,7 @@
         <v>509</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -12713,7 +12713,7 @@
         <v>545</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -12730,7 +12730,7 @@
         <v>477</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -12747,7 +12747,7 @@
         <v>469</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -12764,7 +12764,7 @@
         <v>500</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
@@ -12781,7 +12781,7 @@
         <v>563</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -12798,7 +12798,7 @@
         <v>505</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -12815,7 +12815,7 @@
         <v>913</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -12832,7 +12832,7 @@
         <v>488</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -12849,7 +12849,7 @@
         <v>505</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -12866,7 +12866,7 @@
         <v>488</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -12883,7 +12883,7 @@
         <v>509</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
@@ -12900,7 +12900,7 @@
         <v>914</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
@@ -12917,7 +12917,7 @@
         <v>563</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
@@ -12934,7 +12934,7 @@
         <v>915</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
@@ -12951,7 +12951,7 @@
         <v>573</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
@@ -12968,7 +12968,7 @@
         <v>573</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -12985,7 +12985,7 @@
         <v>505</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -13002,7 +13002,7 @@
         <v>463</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -13019,7 +13019,7 @@
         <v>488</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -13036,7 +13036,7 @@
         <v>573</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -13053,7 +13053,7 @@
         <v>538</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -13070,7 +13070,7 @@
         <v>916</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -13087,7 +13087,7 @@
         <v>465</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -13104,7 +13104,7 @@
         <v>529</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -13121,7 +13121,7 @@
         <v>481</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -13138,7 +13138,7 @@
         <v>559</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
         <v>488</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
@@ -13172,7 +13172,7 @@
         <v>573</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
@@ -13189,7 +13189,7 @@
         <v>917</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -13206,7 +13206,7 @@
         <v>529</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -13223,7 +13223,7 @@
         <v>465</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -13240,7 +13240,7 @@
         <v>549</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -13257,7 +13257,7 @@
         <v>509</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -13274,7 +13274,7 @@
         <v>451</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -13291,7 +13291,7 @@
         <v>453</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -13308,7 +13308,7 @@
         <v>455</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -13325,7 +13325,7 @@
         <v>457</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -13342,7 +13342,7 @@
         <v>459</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -13359,7 +13359,7 @@
         <v>461</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -13376,7 +13376,7 @@
         <v>463</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -13393,7 +13393,7 @@
         <v>465</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -13410,7 +13410,7 @@
         <v>467</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -13427,7 +13427,7 @@
         <v>469</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -13444,7 +13444,7 @@
         <v>471</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
@@ -13461,7 +13461,7 @@
         <v>473</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -13478,7 +13478,7 @@
         <v>475</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -13495,7 +13495,7 @@
         <v>477</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
@@ -13512,7 +13512,7 @@
         <v>479</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -13529,7 +13529,7 @@
         <v>481</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -13546,7 +13546,7 @@
         <v>483</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -13563,7 +13563,7 @@
         <v>485</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -13580,7 +13580,7 @@
         <v>479</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -13597,7 +13597,7 @@
         <v>488</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -13614,7 +13614,7 @@
         <v>490</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
@@ -13631,7 +13631,7 @@
         <v>465</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
@@ -13648,7 +13648,7 @@
         <v>493</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -13665,7 +13665,7 @@
         <v>495</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -13682,7 +13682,7 @@
         <v>488</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -13699,7 +13699,7 @@
         <v>498</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
@@ -13716,7 +13716,7 @@
         <v>500</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
@@ -13733,7 +13733,7 @@
         <v>500</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
@@ -13750,7 +13750,7 @@
         <v>503</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
@@ -13767,7 +13767,7 @@
         <v>505</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
@@ -13784,7 +13784,7 @@
         <v>507</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
@@ -13801,7 +13801,7 @@
         <v>509</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
@@ -13818,7 +13818,7 @@
         <v>511</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
@@ -13835,7 +13835,7 @@
         <v>503</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
@@ -13852,7 +13852,7 @@
         <v>457</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
@@ -13869,7 +13869,7 @@
         <v>515</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
@@ -13886,7 +13886,7 @@
         <v>461</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -13903,7 +13903,7 @@
         <v>518</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
         <v>455</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
@@ -13937,7 +13937,7 @@
         <v>521</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
@@ -13954,7 +13954,7 @@
         <v>493</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
@@ -13971,7 +13971,7 @@
         <v>524</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
@@ -13988,7 +13988,7 @@
         <v>526</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
@@ -14005,7 +14005,7 @@
         <v>451</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -14022,7 +14022,7 @@
         <v>529</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
@@ -14039,7 +14039,7 @@
         <v>531</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
@@ -14056,7 +14056,7 @@
         <v>483</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -14073,7 +14073,7 @@
         <v>485</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
@@ -14090,7 +14090,7 @@
         <v>535</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -14107,7 +14107,7 @@
         <v>526</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
@@ -14124,7 +14124,7 @@
         <v>538</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
@@ -14141,7 +14141,7 @@
         <v>540</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
@@ -14158,7 +14158,7 @@
         <v>518</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
@@ -14175,7 +14175,7 @@
         <v>453</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
@@ -14192,7 +14192,7 @@
         <v>475</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
@@ -14209,7 +14209,7 @@
         <v>545</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
@@ -14226,7 +14226,7 @@
         <v>547</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
@@ -14243,7 +14243,7 @@
         <v>549</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
@@ -14260,7 +14260,7 @@
         <v>463</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
@@ -14277,7 +14277,7 @@
         <v>552</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
@@ -14294,7 +14294,7 @@
         <v>547</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
@@ -14311,7 +14311,7 @@
         <v>555</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
@@ -14328,7 +14328,7 @@
         <v>459</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
@@ -14345,7 +14345,7 @@
         <v>473</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>1459</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
@@ -14362,7 +14362,7 @@
         <v>559</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
@@ -14379,7 +14379,7 @@
         <v>505</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>1461</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
@@ -14396,7 +14396,7 @@
         <v>549</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
@@ -14413,7 +14413,7 @@
         <v>563</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
@@ -14430,7 +14430,7 @@
         <v>469</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -14447,7 +14447,7 @@
         <v>566</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -14464,7 +14464,7 @@
         <v>495</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
@@ -14481,7 +14481,7 @@
         <v>540</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1467</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -14498,7 +14498,7 @@
         <v>490</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
@@ -14515,7 +14515,7 @@
         <v>571</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
@@ -14532,7 +14532,7 @@
         <v>573</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
@@ -14549,7 +14549,7 @@
         <v>538</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
@@ -14566,7 +14566,7 @@
         <v>507</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
@@ -14583,7 +14583,7 @@
         <v>521</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
@@ -14600,7 +14600,7 @@
         <v>509</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
@@ -14617,7 +14617,7 @@
         <v>573</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
@@ -14634,7 +14634,7 @@
         <v>511</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
@@ -14651,7 +14651,7 @@
         <v>515</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
@@ -14668,7 +14668,7 @@
         <v>582</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -14685,7 +14685,7 @@
         <v>531</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
@@ -14702,7 +14702,7 @@
         <v>535</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
@@ -14719,7 +14719,7 @@
         <v>563</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>1481</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
@@ -14736,7 +14736,7 @@
         <v>555</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
@@ -14753,7 +14753,7 @@
         <v>498</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
@@ -14770,7 +14770,7 @@
         <v>571</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
@@ -14787,7 +14787,7 @@
         <v>471</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
@@ -14804,7 +14804,7 @@
         <v>481</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
@@ -14821,7 +14821,7 @@
         <v>582</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
@@ -14838,7 +14838,7 @@
         <v>477</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
@@ -14855,7 +14855,7 @@
         <v>529</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
@@ -14872,7 +14872,7 @@
         <v>559</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
@@ -14889,7 +14889,7 @@
         <v>545</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
@@ -14906,7 +14906,7 @@
         <v>566</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
@@ -14923,7 +14923,7 @@
         <v>524</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
@@ -14940,7 +14940,7 @@
         <v>552</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
@@ -14957,7 +14957,7 @@
         <v>467</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
@@ -14974,7 +14974,7 @@
         <v>862</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -14991,7 +14991,7 @@
         <v>863</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
@@ -15008,7 +15008,7 @@
         <v>864</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
@@ -15025,7 +15025,7 @@
         <v>864</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
@@ -15042,7 +15042,7 @@
         <v>863</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
@@ -15059,7 +15059,7 @@
         <v>863</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
@@ -15076,7 +15076,7 @@
         <v>863</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
@@ -15093,7 +15093,7 @@
         <v>863</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
@@ -15110,7 +15110,7 @@
         <v>863</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
@@ -15127,7 +15127,7 @@
         <v>863</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
@@ -15144,7 +15144,7 @@
         <v>864</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
@@ -15161,7 +15161,7 @@
         <v>865</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
@@ -15178,7 +15178,7 @@
         <v>863</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
@@ -15195,7 +15195,7 @@
         <v>866</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
@@ -15212,7 +15212,7 @@
         <v>865</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
@@ -15229,7 +15229,7 @@
         <v>864</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
@@ -15246,7 +15246,7 @@
         <v>863</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
@@ -15263,7 +15263,7 @@
         <v>864</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
@@ -15280,7 +15280,7 @@
         <v>863</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
@@ -15297,7 +15297,7 @@
         <v>863</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
@@ -15314,7 +15314,7 @@
         <v>862</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
@@ -15331,7 +15331,7 @@
         <v>863</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
@@ -15348,7 +15348,7 @@
         <v>864</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
@@ -15365,7 +15365,7 @@
         <v>867</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
@@ -15382,7 +15382,7 @@
         <v>864</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
@@ -15399,7 +15399,7 @@
         <v>863</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>1519</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
@@ -15416,7 +15416,7 @@
         <v>862</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
@@ -15433,7 +15433,7 @@
         <v>866</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -15450,7 +15450,7 @@
         <v>866</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
@@ -15467,7 +15467,7 @@
         <v>863</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
@@ -15484,7 +15484,7 @@
         <v>866</v>
       </c>
       <c r="E569" s="2" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
@@ -15501,7 +15501,7 @@
         <v>863</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
@@ -15518,7 +15518,7 @@
         <v>864</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
@@ -15535,7 +15535,7 @@
         <v>868</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
@@ -15552,7 +15552,7 @@
         <v>867</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
@@ -15569,7 +15569,7 @@
         <v>862</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
@@ -15586,7 +15586,7 @@
         <v>863</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -15603,7 +15603,7 @@
         <v>865</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
@@ -15620,7 +15620,7 @@
         <v>863</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
@@ -15637,7 +15637,7 @@
         <v>863</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
@@ -15654,7 +15654,7 @@
         <v>862</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
@@ -15671,7 +15671,7 @@
         <v>864</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
@@ -15688,7 +15688,7 @@
         <v>864</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
@@ -15705,7 +15705,7 @@
         <v>866</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
@@ -15722,7 +15722,7 @@
         <v>863</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
@@ -15739,7 +15739,7 @@
         <v>869</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
@@ -15756,7 +15756,7 @@
         <v>863</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
@@ -15773,7 +15773,7 @@
         <v>862</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
@@ -15790,7 +15790,7 @@
         <v>863</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
@@ -15807,7 +15807,7 @@
         <v>863</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
@@ -15824,7 +15824,7 @@
         <v>863</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
         <v>863</v>
       </c>
       <c r="E590" s="2" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
@@ -15858,7 +15858,7 @@
         <v>863</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
@@ -15875,7 +15875,7 @@
         <v>864</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
@@ -15892,7 +15892,7 @@
         <v>862</v>
       </c>
       <c r="E593" s="2" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
@@ -15909,7 +15909,7 @@
         <v>865</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
@@ -15926,7 +15926,7 @@
         <v>863</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
@@ -15943,7 +15943,7 @@
         <v>863</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
@@ -15960,7 +15960,7 @@
         <v>864</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
@@ -15977,7 +15977,7 @@
         <v>863</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
@@ -15994,7 +15994,7 @@
         <v>866</v>
       </c>
       <c r="E599" s="2" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
@@ -16011,7 +16011,7 @@
         <v>863</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
@@ -16028,7 +16028,7 @@
         <v>864</v>
       </c>
       <c r="E601" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
@@ -16045,7 +16045,7 @@
         <v>867</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
@@ -16062,7 +16062,7 @@
         <v>862</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.2">
@@ -16079,7 +16079,7 @@
         <v>864</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.2">
@@ -16096,7 +16096,7 @@
         <v>867</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.2">
@@ -16113,7 +16113,7 @@
         <v>864</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
@@ -16130,7 +16130,7 @@
         <v>863</v>
       </c>
       <c r="E607" s="2" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
@@ -16147,7 +16147,7 @@
         <v>863</v>
       </c>
       <c r="E608" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
@@ -16164,7 +16164,7 @@
         <v>862</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.2">
@@ -16181,7 +16181,7 @@
         <v>863</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.2">
@@ -16198,7 +16198,7 @@
         <v>866</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.2">
@@ -16215,7 +16215,7 @@
         <v>863</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>1359</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.2">
@@ -16232,7 +16232,7 @@
         <v>863</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.2">
@@ -16249,7 +16249,7 @@
         <v>863</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.2">
@@ -16266,7 +16266,7 @@
         <v>863</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.2">
@@ -16283,7 +16283,7 @@
         <v>867</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.2">
@@ -16300,7 +16300,7 @@
         <v>863</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.2">
@@ -16317,7 +16317,7 @@
         <v>863</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.2">
@@ -16334,7 +16334,7 @@
         <v>868</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.2">
@@ -16351,7 +16351,7 @@
         <v>866</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.2">
@@ -16368,7 +16368,7 @@
         <v>864</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.2">
@@ -16385,7 +16385,7 @@
         <v>863</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.2">
@@ -16402,7 +16402,7 @@
         <v>867</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.2">
@@ -16419,7 +16419,7 @@
         <v>864</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
@@ -16436,7 +16436,7 @@
         <v>867</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
@@ -16453,7 +16453,7 @@
         <v>863</v>
       </c>
       <c r="E626" s="2" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
@@ -16470,7 +16470,7 @@
         <v>863</v>
       </c>
       <c r="E627" s="2" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
@@ -16487,7 +16487,7 @@
         <v>863</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
@@ -16504,7 +16504,7 @@
         <v>867</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>1565</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
@@ -16521,7 +16521,7 @@
         <v>863</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
@@ -16538,7 +16538,7 @@
         <v>864</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
@@ -16555,7 +16555,7 @@
         <v>863</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.2">
@@ -16572,7 +16572,7 @@
         <v>863</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
@@ -16589,7 +16589,7 @@
         <v>864</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
@@ -16606,7 +16606,7 @@
         <v>866</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
@@ -16623,7 +16623,7 @@
         <v>862</v>
       </c>
       <c r="E636" s="2" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
@@ -16640,7 +16640,7 @@
         <v>863</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
@@ -16657,7 +16657,7 @@
         <v>863</v>
       </c>
       <c r="E638" s="2" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
@@ -16674,7 +16674,7 @@
         <v>862</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
@@ -16691,7 +16691,7 @@
         <v>863</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.2">
@@ -16708,7 +16708,7 @@
         <v>864</v>
       </c>
       <c r="E641" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.2">
@@ -16725,7 +16725,7 @@
         <v>863</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.2">
@@ -16742,7 +16742,7 @@
         <v>863</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.2">
@@ -16759,7 +16759,7 @@
         <v>862</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.2">
@@ -16776,7 +16776,7 @@
         <v>870</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.2">
@@ -16793,7 +16793,7 @@
         <v>864</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.2">
@@ -16810,7 +16810,7 @@
         <v>863</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.2">
@@ -16827,7 +16827,7 @@
         <v>868</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.2">
@@ -16844,7 +16844,7 @@
         <v>863</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.2">
@@ -16861,7 +16861,7 @@
         <v>863</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.2">
@@ -16878,7 +16878,7 @@
         <v>863</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.2">
@@ -16895,7 +16895,7 @@
         <v>871</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.2">
@@ -16912,7 +16912,7 @@
         <v>872</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.2">
@@ -16929,7 +16929,7 @@
         <v>863</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.2">
@@ -16946,7 +16946,7 @@
         <v>863</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.2">
@@ -16963,7 +16963,7 @@
         <v>862</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.2">
@@ -16980,7 +16980,7 @@
         <v>864</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.2">
@@ -16997,7 +16997,7 @@
         <v>871</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.2">
@@ -17014,7 +17014,7 @@
         <v>863</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.2">
@@ -17031,7 +17031,7 @@
         <v>864</v>
       </c>
       <c r="E660" s="2" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.2">
@@ -17048,7 +17048,7 @@
         <v>863</v>
       </c>
       <c r="E661" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.2">
@@ -17065,7 +17065,7 @@
         <v>867</v>
       </c>
       <c r="E662" s="2" t="s">
-        <v>1574</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.2">
@@ -17082,7 +17082,7 @@
         <v>862</v>
       </c>
       <c r="E663" s="2" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.2">
@@ -17099,7 +17099,7 @@
         <v>863</v>
       </c>
       <c r="E664" s="2" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.2">
@@ -17116,7 +17116,7 @@
         <v>863</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.2">
@@ -17133,7 +17133,7 @@
         <v>868</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
@@ -17150,7 +17150,7 @@
         <v>862</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.2">
@@ -17167,7 +17167,7 @@
         <v>868</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.2">
@@ -17184,7 +17184,7 @@
         <v>863</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.2">
@@ -17201,7 +17201,7 @@
         <v>862</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.2">
@@ -17218,7 +17218,7 @@
         <v>862</v>
       </c>
       <c r="E671" s="2" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
@@ -17235,7 +17235,7 @@
         <v>863</v>
       </c>
       <c r="E672" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.2">
@@ -17252,7 +17252,7 @@
         <v>864</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.2">
@@ -17269,7 +17269,7 @@
         <v>862</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.2">
@@ -17286,7 +17286,7 @@
         <v>863</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.2">
@@ -17303,7 +17303,7 @@
         <v>866</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>1576</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.2">
@@ -17320,7 +17320,7 @@
         <v>863</v>
       </c>
       <c r="E677" s="2" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.2">
@@ -17337,7 +17337,7 @@
         <v>863</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.2">
@@ -17354,7 +17354,7 @@
         <v>863</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.2">
@@ -17371,7 +17371,7 @@
         <v>865</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>1560</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.2">
@@ -17388,7 +17388,7 @@
         <v>863</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.2">
@@ -17405,7 +17405,7 @@
         <v>863</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.2">
@@ -17422,7 +17422,7 @@
         <v>862</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>1593</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.2">
@@ -17439,7 +17439,7 @@
         <v>862</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.2">
@@ -17456,7 +17456,7 @@
         <v>863</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.2">
@@ -17473,7 +17473,7 @@
         <v>865</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.2">
@@ -17490,7 +17490,7 @@
         <v>863</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.2">
@@ -17507,7 +17507,7 @@
         <v>863</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.2">
@@ -17524,7 +17524,7 @@
         <v>869</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.2">
@@ -17541,7 +17541,7 @@
         <v>869</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
@@ -17558,7 +17558,7 @@
         <v>864</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.2">
@@ -17575,7 +17575,7 @@
         <v>863</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.2">
@@ -17592,7 +17592,7 @@
         <v>866</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.2">
@@ -17609,7 +17609,7 @@
         <v>863</v>
       </c>
       <c r="E694" s="2" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.2">
@@ -17626,7 +17626,7 @@
         <v>863</v>
       </c>
       <c r="E695" s="2" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.2">
@@ -17643,7 +17643,7 @@
         <v>863</v>
       </c>
       <c r="E696" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.2">
@@ -17660,7 +17660,7 @@
         <v>863</v>
       </c>
       <c r="E697" s="2" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.2">
@@ -17677,7 +17677,7 @@
         <v>864</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.2">
@@ -17694,7 +17694,7 @@
         <v>866</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.2">
@@ -17711,7 +17711,7 @@
         <v>862</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.2">
@@ -17728,7 +17728,7 @@
         <v>871</v>
       </c>
       <c r="E701" s="2" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.2">
@@ -17745,7 +17745,7 @@
         <v>863</v>
       </c>
       <c r="E702" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.2">
@@ -17762,7 +17762,7 @@
         <v>863</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.2">
@@ -17779,7 +17779,7 @@
         <v>864</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.2">
@@ -17796,7 +17796,7 @@
         <v>862</v>
       </c>
       <c r="E705" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.2">
@@ -17813,7 +17813,7 @@
         <v>873</v>
       </c>
       <c r="E706" s="2" t="s">
-        <v>1564</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.2">
@@ -17830,7 +17830,7 @@
         <v>862</v>
       </c>
       <c r="E707" s="2" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.2">
@@ -17847,7 +17847,7 @@
         <v>863</v>
       </c>
       <c r="E708" s="2" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.2">
@@ -17864,7 +17864,7 @@
         <v>863</v>
       </c>
       <c r="E709" s="2" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.2">
@@ -17881,7 +17881,7 @@
         <v>864</v>
       </c>
       <c r="E710" s="2" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.2">
@@ -17898,7 +17898,7 @@
         <v>865</v>
       </c>
       <c r="E711" s="2" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.2">
@@ -17915,7 +17915,7 @@
         <v>866</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.2">
@@ -17932,7 +17932,7 @@
         <v>863</v>
       </c>
       <c r="E713" s="2" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.2">
@@ -17949,7 +17949,7 @@
         <v>864</v>
       </c>
       <c r="E714" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.2">
@@ -17966,7 +17966,7 @@
         <v>869</v>
       </c>
       <c r="E715" s="2" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.2">
@@ -17983,7 +17983,7 @@
         <v>862</v>
       </c>
       <c r="E716" s="2" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.2">
@@ -18000,7 +18000,7 @@
         <v>864</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.2">
@@ -18017,7 +18017,7 @@
         <v>863</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.2">
@@ -18034,7 +18034,7 @@
         <v>863</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.2">
@@ -18051,7 +18051,7 @@
         <v>863</v>
       </c>
       <c r="E720" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.2">
@@ -18068,7 +18068,7 @@
         <v>863</v>
       </c>
       <c r="E721" s="2" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.2">
@@ -18085,7 +18085,7 @@
         <v>864</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.2">
@@ -18102,7 +18102,7 @@
         <v>863</v>
       </c>
       <c r="E723" s="2" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
@@ -18119,7 +18119,7 @@
         <v>863</v>
       </c>
       <c r="E724" s="2" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
@@ -18136,7 +18136,7 @@
         <v>871</v>
       </c>
       <c r="E725" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.2">
@@ -18153,7 +18153,7 @@
         <v>863</v>
       </c>
       <c r="E726" s="2" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.2">
@@ -18170,7 +18170,7 @@
         <v>868</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.2">
@@ -18187,7 +18187,7 @@
         <v>867</v>
       </c>
       <c r="E728" s="2" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.2">
@@ -18204,7 +18204,7 @@
         <v>865</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.2">
@@ -18221,7 +18221,7 @@
         <v>863</v>
       </c>
       <c r="E730" s="2" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.2">
@@ -18238,7 +18238,7 @@
         <v>863</v>
       </c>
       <c r="E731" s="2" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.2">
@@ -18255,7 +18255,7 @@
         <v>864</v>
       </c>
       <c r="E732" s="2" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.2">
@@ -18272,7 +18272,7 @@
         <v>868</v>
       </c>
       <c r="E733" s="2" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.2">
@@ -18289,7 +18289,7 @@
         <v>863</v>
       </c>
       <c r="E734" s="2" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.2">
@@ -18306,7 +18306,7 @@
         <v>862</v>
       </c>
       <c r="E735" s="2" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.2">
@@ -18323,7 +18323,7 @@
         <v>862</v>
       </c>
       <c r="E736" s="2" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.2">
@@ -18340,7 +18340,7 @@
         <v>863</v>
       </c>
       <c r="E737" s="2" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.2">
@@ -18357,7 +18357,7 @@
         <v>871</v>
       </c>
       <c r="E738" s="2" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.2">
@@ -18374,7 +18374,7 @@
         <v>863</v>
       </c>
       <c r="E739" s="2" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.2">
@@ -18391,7 +18391,7 @@
         <v>863</v>
       </c>
       <c r="E740" s="2" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.2">
@@ -18408,7 +18408,7 @@
         <v>863</v>
       </c>
       <c r="E741" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.2">
@@ -18425,7 +18425,7 @@
         <v>863</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.2">
@@ -18442,7 +18442,7 @@
         <v>864</v>
       </c>
       <c r="E743" s="2" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.2">
@@ -18459,7 +18459,7 @@
         <v>863</v>
       </c>
       <c r="E744" s="2" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.2">
@@ -18476,7 +18476,7 @@
         <v>867</v>
       </c>
       <c r="E745" s="2" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.2">
@@ -18493,7 +18493,7 @@
         <v>864</v>
       </c>
       <c r="E746" s="2" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.2">
@@ -18510,7 +18510,7 @@
         <v>868</v>
       </c>
       <c r="E747" s="2" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.2">
@@ -18527,7 +18527,7 @@
         <v>863</v>
       </c>
       <c r="E748" s="2" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.2">
@@ -18544,7 +18544,7 @@
         <v>863</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.2">
@@ -18561,7 +18561,7 @@
         <v>863</v>
       </c>
       <c r="E750" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.2">
@@ -18578,7 +18578,7 @@
         <v>863</v>
       </c>
       <c r="E751" s="2" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.2">
@@ -18595,7 +18595,7 @@
         <v>863</v>
       </c>
       <c r="E752" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.2">
@@ -18612,7 +18612,7 @@
         <v>862</v>
       </c>
       <c r="E753" s="2" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.2">
@@ -18629,7 +18629,7 @@
         <v>863</v>
       </c>
       <c r="E754" s="2" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.2">
@@ -18646,7 +18646,7 @@
         <v>863</v>
       </c>
       <c r="E755" s="2" t="s">
-        <v>1391</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.2">
@@ -18663,7 +18663,7 @@
         <v>863</v>
       </c>
       <c r="E756" s="2" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.2">
@@ -18680,7 +18680,7 @@
         <v>864</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.2">
@@ -18697,7 +18697,7 @@
         <v>871</v>
       </c>
       <c r="E758" s="2" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.2">
@@ -18714,7 +18714,7 @@
         <v>863</v>
       </c>
       <c r="E759" s="2" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.2">
@@ -18731,7 +18731,7 @@
         <v>862</v>
       </c>
       <c r="E760" s="2" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.2">
@@ -18748,7 +18748,7 @@
         <v>868</v>
       </c>
       <c r="E761" s="2" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.2">
@@ -18765,7 +18765,7 @@
         <v>865</v>
       </c>
       <c r="E762" s="2" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.2">
@@ -18782,7 +18782,7 @@
         <v>864</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.2">
@@ -18799,7 +18799,7 @@
         <v>862</v>
       </c>
       <c r="E764" s="2" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.2">
@@ -18816,7 +18816,7 @@
         <v>863</v>
       </c>
       <c r="E765" s="2" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.2">
@@ -18833,7 +18833,7 @@
         <v>863</v>
       </c>
       <c r="E766" s="2" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.2">
@@ -18850,7 +18850,7 @@
         <v>863</v>
       </c>
       <c r="E767" s="2" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.2">
@@ -18867,7 +18867,7 @@
         <v>862</v>
       </c>
       <c r="E768" s="2" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
@@ -18884,7 +18884,7 @@
         <v>871</v>
       </c>
       <c r="E769" s="2" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
@@ -18901,7 +18901,7 @@
         <v>868</v>
       </c>
       <c r="E770" s="2" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.2">
@@ -18918,7 +18918,7 @@
         <v>868</v>
       </c>
       <c r="E771" s="2" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.2">
@@ -18935,7 +18935,7 @@
         <v>863</v>
       </c>
       <c r="E772" s="2" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.2">
@@ -18952,7 +18952,7 @@
         <v>862</v>
       </c>
       <c r="E773" s="2" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.2">
@@ -18969,7 +18969,7 @@
         <v>863</v>
       </c>
       <c r="E774" s="2" t="s">
-        <v>1395</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.2">
@@ -18986,7 +18986,7 @@
         <v>863</v>
       </c>
       <c r="E775" s="2" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.2">
@@ -19003,7 +19003,7 @@
         <v>863</v>
       </c>
       <c r="E776" s="2" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.2">
@@ -19020,7 +19020,7 @@
         <v>864</v>
       </c>
       <c r="E777" s="2" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.2">
@@ -19037,7 +19037,7 @@
         <v>866</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.2">
@@ -19054,7 +19054,7 @@
         <v>863</v>
       </c>
       <c r="E779" s="2" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
@@ -19071,7 +19071,7 @@
         <v>863</v>
       </c>
       <c r="E780" s="2" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.2">
@@ -19088,7 +19088,7 @@
         <v>868</v>
       </c>
       <c r="E781" s="2" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.2">
@@ -19105,7 +19105,7 @@
         <v>862</v>
       </c>
       <c r="E782" s="2" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.2">
@@ -19122,7 +19122,7 @@
         <v>863</v>
       </c>
       <c r="E783" s="2" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.2">
@@ -19139,7 +19139,7 @@
         <v>864</v>
       </c>
       <c r="E784" s="2" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.2">
@@ -19156,7 +19156,7 @@
         <v>863</v>
       </c>
       <c r="E785" s="2" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.2">
@@ -19173,7 +19173,7 @@
         <v>868</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
@@ -19190,7 +19190,7 @@
         <v>862</v>
       </c>
       <c r="E787" s="2" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
@@ -19207,7 +19207,7 @@
         <v>868</v>
       </c>
       <c r="E788" s="2" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
@@ -19224,7 +19224,7 @@
         <v>862</v>
       </c>
       <c r="E789" s="2" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
@@ -19241,7 +19241,7 @@
         <v>864</v>
       </c>
       <c r="E790" s="2" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
@@ -19258,7 +19258,7 @@
         <v>864</v>
       </c>
       <c r="E791" s="2" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
@@ -19275,7 +19275,7 @@
         <v>863</v>
       </c>
       <c r="E792" s="2" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
@@ -19292,7 +19292,7 @@
         <v>865</v>
       </c>
       <c r="E793" s="2" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
@@ -19309,7 +19309,7 @@
         <v>863</v>
       </c>
       <c r="E794" s="2" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
@@ -19326,7 +19326,7 @@
         <v>863</v>
       </c>
       <c r="E795" s="2" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
@@ -19343,7 +19343,7 @@
         <v>864</v>
       </c>
       <c r="E796" s="2" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.2">
@@ -19360,7 +19360,7 @@
         <v>864</v>
       </c>
       <c r="E797" s="2" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
   </sheetData>
@@ -19409,7 +19409,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -19431,7 +19431,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -19442,7 +19442,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -19450,7 +19450,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -19458,7 +19458,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1716</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -19466,7 +19466,7 @@
         <v>601</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -19474,7 +19474,7 @@
         <v>600</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">

--- a/A_Input/twitter_handles.xlsx
+++ b/A_Input/twitter_handles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s8/Documents/Coding/word_choice_communities/A_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79B7D82-4658-694C-A83E-E3C2BD0F67BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244143AE-3E33-1E43-BE71-80DF748E1F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1820" windowWidth="17300" windowHeight="21100" xr2:uid="{BCB6CF97-4FB3-B941-833D-11AB9E201DC0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="1722">
   <si>
     <t>group</t>
   </si>
@@ -5197,6 +5197,9 @@
   </si>
   <si>
     <t>https://twitter.com/rechievaldez</t>
+  </si>
+  <si>
+    <t>https://twitter.com/stenyhoyer</t>
   </si>
 </sst>
 </file>
@@ -5653,8 +5656,8 @@
   <dimension ref="A1:J797"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8990,7 +8993,7 @@
         <v>477</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>1098</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">

--- a/A_Input/twitter_handles.xlsx
+++ b/A_Input/twitter_handles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s8/Documents/Coding/word_choice_communities/A_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244143AE-3E33-1E43-BE71-80DF748E1F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800BED96-52DE-C447-8642-CD07595C36D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1820" windowWidth="17300" windowHeight="21100" xr2:uid="{BCB6CF97-4FB3-B941-833D-11AB9E201DC0}"/>
+    <workbookView xWindow="11140" yWindow="500" windowWidth="17300" windowHeight="21100" xr2:uid="{BCB6CF97-4FB3-B941-833D-11AB9E201DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="handles" sheetId="1" r:id="rId1"/>
@@ -5656,7 +5656,7 @@
   <dimension ref="A1:J797"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A768" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
@@ -19394,7 +19394,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19468,21 +19468,21 @@
       <c r="B7" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1708</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>600</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
